--- a/data/excel/team_name.xlsx
+++ b/data/excel/team_name.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\gen\program\game\football\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F45F7D-4EE3-4D61-ACB2-8325FF4F6827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6328B5E2-310D-47AF-BA41-321FCDDB45D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31005" yWindow="6210" windowWidth="14400" windowHeight="7275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="293">
   <si>
     <t>Brentford</t>
     <phoneticPr fontId="1"/>
@@ -860,6 +860,342 @@
   </si>
   <si>
     <t>Aalen</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LigaPortugal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Benfica</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Porto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SportingCP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Braga</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Guimaraes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Famalicao</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vicente</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Estoril</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pacos</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SantaClara</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Boavista</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Portimonense</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Maritimo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CasaPia</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vizela</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RioAve</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Arouca</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chaves</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LigaPortugal2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Moreirense</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AcademicoViseu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Farense</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tondeia</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mafra</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vilafranquense</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Penafiel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BSAD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Uniap Torreense</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Trofense</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nacional</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Feirense</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Leixoes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EstrelaAmadora</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Convilha</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Oliveirense</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lisbon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Amadora</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>coinbra</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kerus</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>funcial</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>k4sen</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ProLeague</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ClubBrugge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Genk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Anderiecht</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gent</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>StandardLiege</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RoyaleUnion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Charleroi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OudHevelee</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Westerlo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cerclebrugge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mechelen</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Kortrijk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sint-TruidenseVV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Oostende</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Eupen</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ZulteWaregem</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Seraing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Antwerp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Molenbeek</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	Lommel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ChallengerProLeague</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Beveren</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ClubNXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Beerschot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KMSKDeinze</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JongGenk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RoyalExcelsiorVirton</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LierseKempenzonen</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RSCAFutures</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">FCVDenderEH </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ZébraÉlites</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YoungReds</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Knokke</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ThesSport</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RoyalFrancsBorains</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ninove</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OlympicClub</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lüttich</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URSLVisé</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RAALLaLouvière</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Heist</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1185,15 +1521,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1224,8 +1560,20 @@
       <c r="J1" t="s">
         <v>188</v>
       </c>
+      <c r="K1" t="s">
+        <v>209</v>
+      </c>
+      <c r="L1" t="s">
+        <v>228</v>
+      </c>
+      <c r="M1" t="s">
+        <v>251</v>
+      </c>
+      <c r="N1" t="s">
+        <v>272</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1256,8 +1604,20 @@
       <c r="J2" t="s">
         <v>189</v>
       </c>
+      <c r="K2" t="s">
+        <v>210</v>
+      </c>
+      <c r="L2" t="s">
+        <v>231</v>
+      </c>
+      <c r="M2" t="s">
+        <v>252</v>
+      </c>
+      <c r="N2" t="s">
+        <v>273</v>
+      </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1288,8 +1648,20 @@
       <c r="J3" t="s">
         <v>190</v>
       </c>
+      <c r="K3" t="s">
+        <v>211</v>
+      </c>
+      <c r="L3" t="s">
+        <v>232</v>
+      </c>
+      <c r="M3" t="s">
+        <v>253</v>
+      </c>
+      <c r="N3" t="s">
+        <v>274</v>
+      </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1320,8 +1692,20 @@
       <c r="J4" t="s">
         <v>191</v>
       </c>
+      <c r="K4" t="s">
+        <v>212</v>
+      </c>
+      <c r="L4" t="s">
+        <v>233</v>
+      </c>
+      <c r="M4" t="s">
+        <v>254</v>
+      </c>
+      <c r="N4" t="s">
+        <v>275</v>
+      </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1352,8 +1736,20 @@
       <c r="J5" t="s">
         <v>192</v>
       </c>
+      <c r="K5" t="s">
+        <v>213</v>
+      </c>
+      <c r="L5" t="s">
+        <v>234</v>
+      </c>
+      <c r="M5" t="s">
+        <v>255</v>
+      </c>
+      <c r="N5" t="s">
+        <v>276</v>
+      </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1384,8 +1780,20 @@
       <c r="J6" t="s">
         <v>193</v>
       </c>
+      <c r="K6" t="s">
+        <v>214</v>
+      </c>
+      <c r="L6" t="s">
+        <v>235</v>
+      </c>
+      <c r="M6" t="s">
+        <v>256</v>
+      </c>
+      <c r="N6" t="s">
+        <v>277</v>
+      </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1416,8 +1824,20 @@
       <c r="J7" t="s">
         <v>194</v>
       </c>
+      <c r="K7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L7" t="s">
+        <v>236</v>
+      </c>
+      <c r="M7" t="s">
+        <v>257</v>
+      </c>
+      <c r="N7" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1448,8 +1868,20 @@
       <c r="J8" t="s">
         <v>195</v>
       </c>
+      <c r="K8" t="s">
+        <v>216</v>
+      </c>
+      <c r="L8" t="s">
+        <v>237</v>
+      </c>
+      <c r="M8" t="s">
+        <v>258</v>
+      </c>
+      <c r="N8" t="s">
+        <v>279</v>
+      </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1480,8 +1912,20 @@
       <c r="J9" t="s">
         <v>196</v>
       </c>
+      <c r="K9" t="s">
+        <v>217</v>
+      </c>
+      <c r="L9" t="s">
+        <v>238</v>
+      </c>
+      <c r="M9" t="s">
+        <v>259</v>
+      </c>
+      <c r="N9" t="s">
+        <v>280</v>
+      </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1512,8 +1956,20 @@
       <c r="J10" t="s">
         <v>197</v>
       </c>
+      <c r="K10" t="s">
+        <v>218</v>
+      </c>
+      <c r="L10" t="s">
+        <v>239</v>
+      </c>
+      <c r="M10" t="s">
+        <v>260</v>
+      </c>
+      <c r="N10" t="s">
+        <v>281</v>
+      </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1544,8 +2000,20 @@
       <c r="J11" t="s">
         <v>198</v>
       </c>
+      <c r="K11" t="s">
+        <v>219</v>
+      </c>
+      <c r="L11" t="s">
+        <v>240</v>
+      </c>
+      <c r="M11" t="s">
+        <v>261</v>
+      </c>
+      <c r="N11" t="s">
+        <v>282</v>
+      </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1576,8 +2044,20 @@
       <c r="J12" t="s">
         <v>199</v>
       </c>
+      <c r="K12" t="s">
+        <v>220</v>
+      </c>
+      <c r="L12" t="s">
+        <v>241</v>
+      </c>
+      <c r="M12" t="s">
+        <v>262</v>
+      </c>
+      <c r="N12" t="s">
+        <v>283</v>
+      </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1608,8 +2088,20 @@
       <c r="J13" t="s">
         <v>200</v>
       </c>
+      <c r="K13" t="s">
+        <v>221</v>
+      </c>
+      <c r="L13" t="s">
+        <v>242</v>
+      </c>
+      <c r="M13" t="s">
+        <v>263</v>
+      </c>
+      <c r="N13" t="s">
+        <v>284</v>
+      </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1640,8 +2132,20 @@
       <c r="J14" t="s">
         <v>201</v>
       </c>
+      <c r="K14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L14" t="s">
+        <v>243</v>
+      </c>
+      <c r="M14" t="s">
+        <v>265</v>
+      </c>
+      <c r="N14" t="s">
+        <v>285</v>
+      </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1672,8 +2176,20 @@
       <c r="J15" t="s">
         <v>202</v>
       </c>
+      <c r="K15" t="s">
+        <v>223</v>
+      </c>
+      <c r="L15" t="s">
+        <v>244</v>
+      </c>
+      <c r="M15" t="s">
+        <v>264</v>
+      </c>
+      <c r="N15" t="s">
+        <v>286</v>
+      </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1704,8 +2220,20 @@
       <c r="J16" t="s">
         <v>203</v>
       </c>
+      <c r="K16" t="s">
+        <v>224</v>
+      </c>
+      <c r="L16" t="s">
+        <v>245</v>
+      </c>
+      <c r="M16" t="s">
+        <v>266</v>
+      </c>
+      <c r="N16" t="s">
+        <v>287</v>
+      </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1736,8 +2264,20 @@
       <c r="J17" t="s">
         <v>204</v>
       </c>
+      <c r="K17" t="s">
+        <v>225</v>
+      </c>
+      <c r="L17" t="s">
+        <v>246</v>
+      </c>
+      <c r="M17" t="s">
+        <v>267</v>
+      </c>
+      <c r="N17" t="s">
+        <v>288</v>
+      </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1768,8 +2308,20 @@
       <c r="J18" t="s">
         <v>205</v>
       </c>
+      <c r="K18" t="s">
+        <v>226</v>
+      </c>
+      <c r="L18" t="s">
+        <v>247</v>
+      </c>
+      <c r="M18" t="s">
+        <v>268</v>
+      </c>
+      <c r="N18" t="s">
+        <v>289</v>
+      </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1800,8 +2352,20 @@
       <c r="J19" t="s">
         <v>206</v>
       </c>
+      <c r="K19" t="s">
+        <v>227</v>
+      </c>
+      <c r="L19" t="s">
+        <v>248</v>
+      </c>
+      <c r="M19" t="s">
+        <v>269</v>
+      </c>
+      <c r="N19" t="s">
+        <v>290</v>
+      </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1832,8 +2396,20 @@
       <c r="J20" t="s">
         <v>207</v>
       </c>
+      <c r="K20" t="s">
+        <v>229</v>
+      </c>
+      <c r="L20" t="s">
+        <v>249</v>
+      </c>
+      <c r="M20" t="s">
+        <v>270</v>
+      </c>
+      <c r="N20" t="s">
+        <v>291</v>
+      </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1863,6 +2439,18 @@
       </c>
       <c r="J21" t="s">
         <v>208</v>
+      </c>
+      <c r="K21" t="s">
+        <v>230</v>
+      </c>
+      <c r="L21" t="s">
+        <v>250</v>
+      </c>
+      <c r="M21" t="s">
+        <v>271</v>
+      </c>
+      <c r="N21" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel/team_name.xlsx
+++ b/data/excel/team_name.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\gen\program\game\football\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6328B5E2-310D-47AF-BA41-321FCDDB45D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497B1DC3-B119-4461-AEE3-9CE23F89CF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="419">
   <si>
     <t>Brentford</t>
     <phoneticPr fontId="1"/>
@@ -1111,10 +1111,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">	Lommel</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ChallengerProLeague</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1196,6 +1192,514 @@
   </si>
   <si>
     <t>Heist</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ligue1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PSG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Monaco</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>StadeRennais</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nice</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lille</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RCLens</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Montpellier</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nantes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Reims</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lommel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lorient</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Trotes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Brestois</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Angers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Toulouse</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Clermont</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Auxerre</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ligue2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SaintEtlenne</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bordeaux</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Metz</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sochaux</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Amiens</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Havre</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dijon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Caen</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Paris</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Valenciennes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Guingamp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nimes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Grenoble</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rodez</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Metropole</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Niortais</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pau</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bastia</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Annecy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lavallois</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ligue3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nancy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RedStar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chateauroux</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Orleans</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cholet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Versaille</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sedan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Concarneau</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LeMans</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dunkerque</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Avranches</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vbourg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Briochin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LPF43</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Paris13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Villefranche</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Borgo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Martigues</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Voltigeurs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Granville</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SerieA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Milan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Inter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Napoli</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Juventus</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Roma</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Atalanta</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lazio</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fiorentina</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sassuolo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Torino</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Udinese</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bologna</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Monza</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Salernitana</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Empoli</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Verona</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cremonese</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lecce</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Spezia</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sampdoria</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SerieB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Genoa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Parma</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Venezia</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cagliari</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pisa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Benevento</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Como</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Frosinone</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Palermo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Brescia</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ternana</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bari</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPAL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ascoli</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Reggina</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Perugia</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cittadella</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Modena</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cossenza</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sudtirol</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SerieC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vicenza</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Triestina</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Padova</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pordenone</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Novara</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vercelli</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Feralpisalo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Albinoleffe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Renate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Trento</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lecco</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mantova</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sangiuliano</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AuroraPro</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pergolettese</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Virtusvecomp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Piacenza</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Arzignano</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sesto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hosoe</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1521,15 +2025,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1570,10 +2074,28 @@
         <v>251</v>
       </c>
       <c r="N1" t="s">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="O1" t="s">
+        <v>292</v>
+      </c>
+      <c r="P1" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>335</v>
+      </c>
+      <c r="R1" t="s">
+        <v>356</v>
+      </c>
+      <c r="S1" t="s">
+        <v>377</v>
+      </c>
+      <c r="T1" t="s">
+        <v>398</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1614,10 +2136,28 @@
         <v>252</v>
       </c>
       <c r="N2" t="s">
-        <v>273</v>
+        <v>272</v>
+      </c>
+      <c r="O2" t="s">
+        <v>293</v>
+      </c>
+      <c r="P2" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>336</v>
+      </c>
+      <c r="R2" t="s">
+        <v>357</v>
+      </c>
+      <c r="S2" t="s">
+        <v>378</v>
+      </c>
+      <c r="T2" t="s">
+        <v>399</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1658,10 +2198,28 @@
         <v>253</v>
       </c>
       <c r="N3" t="s">
-        <v>274</v>
+        <v>273</v>
+      </c>
+      <c r="O3" t="s">
+        <v>294</v>
+      </c>
+      <c r="P3" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>337</v>
+      </c>
+      <c r="R3" t="s">
+        <v>358</v>
+      </c>
+      <c r="S3" t="s">
+        <v>379</v>
+      </c>
+      <c r="T3" t="s">
+        <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1702,10 +2260,28 @@
         <v>254</v>
       </c>
       <c r="N4" t="s">
-        <v>275</v>
+        <v>274</v>
+      </c>
+      <c r="O4" t="s">
+        <v>295</v>
+      </c>
+      <c r="P4" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>338</v>
+      </c>
+      <c r="R4" t="s">
+        <v>359</v>
+      </c>
+      <c r="S4" t="s">
+        <v>380</v>
+      </c>
+      <c r="T4" t="s">
+        <v>401</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1746,10 +2322,28 @@
         <v>255</v>
       </c>
       <c r="N5" t="s">
-        <v>276</v>
+        <v>275</v>
+      </c>
+      <c r="O5" t="s">
+        <v>296</v>
+      </c>
+      <c r="P5" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>339</v>
+      </c>
+      <c r="R5" t="s">
+        <v>360</v>
+      </c>
+      <c r="S5" t="s">
+        <v>381</v>
+      </c>
+      <c r="T5" t="s">
+        <v>402</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1790,10 +2384,28 @@
         <v>256</v>
       </c>
       <c r="N6" t="s">
-        <v>277</v>
+        <v>276</v>
+      </c>
+      <c r="O6" t="s">
+        <v>304</v>
+      </c>
+      <c r="P6" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>340</v>
+      </c>
+      <c r="R6" t="s">
+        <v>361</v>
+      </c>
+      <c r="S6" t="s">
+        <v>382</v>
+      </c>
+      <c r="T6" t="s">
+        <v>403</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1834,10 +2446,28 @@
         <v>257</v>
       </c>
       <c r="N7" t="s">
-        <v>278</v>
+        <v>277</v>
+      </c>
+      <c r="O7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P7" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>341</v>
+      </c>
+      <c r="R7" t="s">
+        <v>362</v>
+      </c>
+      <c r="S7" t="s">
+        <v>383</v>
+      </c>
+      <c r="T7" t="s">
+        <v>404</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1878,10 +2508,28 @@
         <v>258</v>
       </c>
       <c r="N8" t="s">
-        <v>279</v>
+        <v>278</v>
+      </c>
+      <c r="O8" t="s">
+        <v>298</v>
+      </c>
+      <c r="P8" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>342</v>
+      </c>
+      <c r="R8" t="s">
+        <v>363</v>
+      </c>
+      <c r="S8" t="s">
+        <v>384</v>
+      </c>
+      <c r="T8" t="s">
+        <v>405</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1922,10 +2570,28 @@
         <v>259</v>
       </c>
       <c r="N9" t="s">
-        <v>280</v>
+        <v>279</v>
+      </c>
+      <c r="O9" t="s">
+        <v>299</v>
+      </c>
+      <c r="P9" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>343</v>
+      </c>
+      <c r="R9" t="s">
+        <v>364</v>
+      </c>
+      <c r="S9" t="s">
+        <v>385</v>
+      </c>
+      <c r="T9" t="s">
+        <v>406</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1966,10 +2632,28 @@
         <v>260</v>
       </c>
       <c r="N10" t="s">
-        <v>281</v>
+        <v>280</v>
+      </c>
+      <c r="O10" t="s">
+        <v>300</v>
+      </c>
+      <c r="P10" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>344</v>
+      </c>
+      <c r="R10" t="s">
+        <v>365</v>
+      </c>
+      <c r="S10" t="s">
+        <v>386</v>
+      </c>
+      <c r="T10" t="s">
+        <v>407</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2010,10 +2694,28 @@
         <v>261</v>
       </c>
       <c r="N11" t="s">
-        <v>282</v>
+        <v>281</v>
+      </c>
+      <c r="O11" t="s">
+        <v>301</v>
+      </c>
+      <c r="P11" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>345</v>
+      </c>
+      <c r="R11" t="s">
+        <v>366</v>
+      </c>
+      <c r="S11" t="s">
+        <v>387</v>
+      </c>
+      <c r="T11" t="s">
+        <v>408</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2054,10 +2756,28 @@
         <v>262</v>
       </c>
       <c r="N12" t="s">
-        <v>283</v>
+        <v>282</v>
+      </c>
+      <c r="O12" t="s">
+        <v>302</v>
+      </c>
+      <c r="P12" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>346</v>
+      </c>
+      <c r="R12" t="s">
+        <v>367</v>
+      </c>
+      <c r="S12" t="s">
+        <v>388</v>
+      </c>
+      <c r="T12" t="s">
+        <v>409</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2098,10 +2818,28 @@
         <v>263</v>
       </c>
       <c r="N13" t="s">
-        <v>284</v>
+        <v>283</v>
+      </c>
+      <c r="O13" t="s">
+        <v>303</v>
+      </c>
+      <c r="P13" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>347</v>
+      </c>
+      <c r="R13" t="s">
+        <v>368</v>
+      </c>
+      <c r="S13" t="s">
+        <v>389</v>
+      </c>
+      <c r="T13" t="s">
+        <v>410</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2142,10 +2880,28 @@
         <v>265</v>
       </c>
       <c r="N14" t="s">
-        <v>285</v>
+        <v>284</v>
+      </c>
+      <c r="O14" t="s">
+        <v>306</v>
+      </c>
+      <c r="P14" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>348</v>
+      </c>
+      <c r="R14" t="s">
+        <v>369</v>
+      </c>
+      <c r="S14" t="s">
+        <v>390</v>
+      </c>
+      <c r="T14" t="s">
+        <v>411</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2186,10 +2942,28 @@
         <v>264</v>
       </c>
       <c r="N15" t="s">
-        <v>286</v>
+        <v>285</v>
+      </c>
+      <c r="O15" t="s">
+        <v>307</v>
+      </c>
+      <c r="P15" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>349</v>
+      </c>
+      <c r="R15" t="s">
+        <v>370</v>
+      </c>
+      <c r="S15" t="s">
+        <v>391</v>
+      </c>
+      <c r="T15" t="s">
+        <v>412</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -2230,10 +3004,28 @@
         <v>266</v>
       </c>
       <c r="N16" t="s">
-        <v>287</v>
+        <v>286</v>
+      </c>
+      <c r="O16" t="s">
+        <v>308</v>
+      </c>
+      <c r="P16" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>350</v>
+      </c>
+      <c r="R16" t="s">
+        <v>371</v>
+      </c>
+      <c r="S16" t="s">
+        <v>392</v>
+      </c>
+      <c r="T16" t="s">
+        <v>413</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2274,10 +3066,28 @@
         <v>267</v>
       </c>
       <c r="N17" t="s">
-        <v>288</v>
+        <v>287</v>
+      </c>
+      <c r="O17" t="s">
+        <v>309</v>
+      </c>
+      <c r="P17" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>351</v>
+      </c>
+      <c r="R17" t="s">
+        <v>372</v>
+      </c>
+      <c r="S17" t="s">
+        <v>393</v>
+      </c>
+      <c r="T17" t="s">
+        <v>414</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:20">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2318,10 +3128,28 @@
         <v>268</v>
       </c>
       <c r="N18" t="s">
-        <v>289</v>
+        <v>288</v>
+      </c>
+      <c r="O18" t="s">
+        <v>310</v>
+      </c>
+      <c r="P18" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>352</v>
+      </c>
+      <c r="R18" t="s">
+        <v>373</v>
+      </c>
+      <c r="S18" t="s">
+        <v>394</v>
+      </c>
+      <c r="T18" t="s">
+        <v>415</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:20">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2362,10 +3190,28 @@
         <v>269</v>
       </c>
       <c r="N19" t="s">
-        <v>290</v>
+        <v>289</v>
+      </c>
+      <c r="O19" t="s">
+        <v>311</v>
+      </c>
+      <c r="P19" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>353</v>
+      </c>
+      <c r="R19" t="s">
+        <v>374</v>
+      </c>
+      <c r="S19" t="s">
+        <v>395</v>
+      </c>
+      <c r="T19" t="s">
+        <v>416</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:20">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2406,10 +3252,28 @@
         <v>270</v>
       </c>
       <c r="N20" t="s">
-        <v>291</v>
+        <v>290</v>
+      </c>
+      <c r="O20" t="s">
+        <v>312</v>
+      </c>
+      <c r="P20" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>354</v>
+      </c>
+      <c r="R20" t="s">
+        <v>375</v>
+      </c>
+      <c r="S20" t="s">
+        <v>396</v>
+      </c>
+      <c r="T20" t="s">
+        <v>417</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:20">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2447,10 +3311,28 @@
         <v>250</v>
       </c>
       <c r="M21" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="N21" t="s">
-        <v>292</v>
+        <v>291</v>
+      </c>
+      <c r="O21" t="s">
+        <v>313</v>
+      </c>
+      <c r="P21" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>355</v>
+      </c>
+      <c r="R21" t="s">
+        <v>376</v>
+      </c>
+      <c r="S21" t="s">
+        <v>397</v>
+      </c>
+      <c r="T21" t="s">
+        <v>418</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel/team_name.xlsx
+++ b/data/excel/team_name.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\gen\program\game\football\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497B1DC3-B119-4461-AEE3-9CE23F89CF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0784C93B-C36B-43CA-A8D3-FD98D84DE798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="461">
   <si>
     <t>Brentford</t>
     <phoneticPr fontId="1"/>
@@ -1700,6 +1700,174 @@
   </si>
   <si>
     <t>Hosoe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eredivisie</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PSV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ajax</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Feyenoord</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AZ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Utrecht</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Twente</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vitesse</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Froningen</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Heerenveen</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fontuna</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NEC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Leeuwarden</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rotterdam</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Emmen</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RKC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Volendam</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GAE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sparta</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PEC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Willem</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scottish Premiership</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rangers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Celtic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Heart</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hibernian</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Aberdeen</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>St.Johnstone</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Motherwell</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Livingston</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>St.Mirren</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RossCounty</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dundee</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Kilmarnock</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Inverness</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Patrick</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rovers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hamilton</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ayr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Greenock</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Arbroath</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QueensPark</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2025,15 +2193,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+      <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -2094,8 +2262,14 @@
       <c r="T1" t="s">
         <v>398</v>
       </c>
+      <c r="U1" t="s">
+        <v>419</v>
+      </c>
+      <c r="V1" t="s">
+        <v>440</v>
+      </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2156,8 +2330,14 @@
       <c r="T2" t="s">
         <v>399</v>
       </c>
+      <c r="U2" t="s">
+        <v>421</v>
+      </c>
+      <c r="V2" t="s">
+        <v>441</v>
+      </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2218,8 +2398,14 @@
       <c r="T3" t="s">
         <v>400</v>
       </c>
+      <c r="U3" t="s">
+        <v>420</v>
+      </c>
+      <c r="V3" t="s">
+        <v>442</v>
+      </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2280,8 +2466,14 @@
       <c r="T4" t="s">
         <v>401</v>
       </c>
+      <c r="U4" t="s">
+        <v>422</v>
+      </c>
+      <c r="V4" t="s">
+        <v>443</v>
+      </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2342,8 +2534,14 @@
       <c r="T5" t="s">
         <v>402</v>
       </c>
+      <c r="U5" t="s">
+        <v>423</v>
+      </c>
+      <c r="V5" t="s">
+        <v>444</v>
+      </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2404,8 +2602,14 @@
       <c r="T6" t="s">
         <v>403</v>
       </c>
+      <c r="U6" t="s">
+        <v>424</v>
+      </c>
+      <c r="V6" t="s">
+        <v>445</v>
+      </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2466,8 +2670,14 @@
       <c r="T7" t="s">
         <v>404</v>
       </c>
+      <c r="U7" t="s">
+        <v>425</v>
+      </c>
+      <c r="V7" t="s">
+        <v>446</v>
+      </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2528,8 +2738,14 @@
       <c r="T8" t="s">
         <v>405</v>
       </c>
+      <c r="U8" t="s">
+        <v>426</v>
+      </c>
+      <c r="V8" t="s">
+        <v>447</v>
+      </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2590,8 +2806,14 @@
       <c r="T9" t="s">
         <v>406</v>
       </c>
+      <c r="U9" t="s">
+        <v>427</v>
+      </c>
+      <c r="V9" t="s">
+        <v>448</v>
+      </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2652,8 +2874,14 @@
       <c r="T10" t="s">
         <v>407</v>
       </c>
+      <c r="U10" t="s">
+        <v>428</v>
+      </c>
+      <c r="V10" t="s">
+        <v>449</v>
+      </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2714,8 +2942,14 @@
       <c r="T11" t="s">
         <v>408</v>
       </c>
+      <c r="U11" t="s">
+        <v>429</v>
+      </c>
+      <c r="V11" t="s">
+        <v>450</v>
+      </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2776,8 +3010,14 @@
       <c r="T12" t="s">
         <v>409</v>
       </c>
+      <c r="U12" t="s">
+        <v>430</v>
+      </c>
+      <c r="V12" t="s">
+        <v>451</v>
+      </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2838,8 +3078,14 @@
       <c r="T13" t="s">
         <v>410</v>
       </c>
+      <c r="U13" t="s">
+        <v>431</v>
+      </c>
+      <c r="V13" t="s">
+        <v>452</v>
+      </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2900,8 +3146,14 @@
       <c r="T14" t="s">
         <v>411</v>
       </c>
+      <c r="U14" t="s">
+        <v>432</v>
+      </c>
+      <c r="V14" t="s">
+        <v>453</v>
+      </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2962,8 +3214,14 @@
       <c r="T15" t="s">
         <v>412</v>
       </c>
+      <c r="U15" t="s">
+        <v>433</v>
+      </c>
+      <c r="V15" t="s">
+        <v>454</v>
+      </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -3024,8 +3282,14 @@
       <c r="T16" t="s">
         <v>413</v>
       </c>
+      <c r="U16" t="s">
+        <v>434</v>
+      </c>
+      <c r="V16" t="s">
+        <v>455</v>
+      </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:22">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -3086,8 +3350,14 @@
       <c r="T17" t="s">
         <v>414</v>
       </c>
+      <c r="U17" t="s">
+        <v>435</v>
+      </c>
+      <c r="V17" t="s">
+        <v>456</v>
+      </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:22">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3148,8 +3418,14 @@
       <c r="T18" t="s">
         <v>415</v>
       </c>
+      <c r="U18" t="s">
+        <v>436</v>
+      </c>
+      <c r="V18" t="s">
+        <v>457</v>
+      </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:22">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -3210,8 +3486,14 @@
       <c r="T19" t="s">
         <v>416</v>
       </c>
+      <c r="U19" t="s">
+        <v>437</v>
+      </c>
+      <c r="V19" t="s">
+        <v>458</v>
+      </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3272,8 +3554,14 @@
       <c r="T20" t="s">
         <v>417</v>
       </c>
+      <c r="U20" t="s">
+        <v>438</v>
+      </c>
+      <c r="V20" t="s">
+        <v>459</v>
+      </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:22">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3333,6 +3621,12 @@
       </c>
       <c r="T21" t="s">
         <v>418</v>
+      </c>
+      <c r="U21" t="s">
+        <v>439</v>
+      </c>
+      <c r="V21" t="s">
+        <v>460</v>
       </c>
     </row>
   </sheetData>
